--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="global_variable" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">global_variable!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalVariable!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,21 +35,26 @@
     <t>id</t>
   </si>
   <si>
+    <t>design</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
     <t>common</t>
   </si>
-  <si>
-    <t>design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,21 +63,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -72,9 +409,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -83,17 +662,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,123 +974,123 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
+    <sheet name="globalvariable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalVariable!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">globalvariable!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="globalvariable" sheetId="1" r:id="rId1"/>
+    <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">globalvariable!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GlobalVariable!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -983,7 +983,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="24610" windowHeight="11890"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24610" windowHeight="11890"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -980,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1009,83 +1009,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>2</v>
-      </c>
-    </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="26150" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>design</t>
+    <t>desgin</t>
   </si>
   <si>
     <t>uint32</t>
@@ -730,7 +730,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -983,10 +983,10 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -35,7 +35,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>desgin</t>
+    <t>designer</t>
   </si>
   <si>
     <t>uint32</t>
@@ -983,7 +983,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26150" windowHeight="12720"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
@@ -980,10 +980,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1009,83 +1009,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>10</v>
-      </c>
-    </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowWidth="26910" windowHeight="12910"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -38,10 +38,43 @@
     <t>designer</t>
   </si>
   <si>
+    <t>constants_name</t>
+  </si>
+  <si>
+    <t>touint32</t>
+  </si>
+  <si>
+    <t>toint32</t>
+  </si>
+  <si>
+    <t>tostring</t>
+  </si>
+  <si>
+    <t>tofloat</t>
+  </si>
+  <si>
+    <t>todouble</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>非正常下线时间</t>
   </si>
 </sst>
 </file>
@@ -980,38 +1013,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:1">

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>非正常下线时间</t>
+  </si>
+  <si>
+    <t>ABNORMAL_LOGOUT</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1082,6 +1085,9 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
       <c r="H20">
         <v>1200</v>
       </c>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -77,7 +77,7 @@
     <t>非正常下线时间</t>
   </si>
   <si>
-    <t>ABNORMAL_LOGOUT</t>
+    <t>Abnormal_logout</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1070,12 +1070,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26910" windowHeight="12910"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -756,6 +756,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,15 +1023,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1056,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1068,6 +1078,9 @@
       </c>
       <c r="H2" t="s">
         <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/bin/config/xlsx/GlobalVariable.xlsx
+++ b/bin/config/xlsx/GlobalVariable.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -1023,15 +1023,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,11 +1056,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1078,9 +1075,6 @@
       </c>
       <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
